--- a/StockPredictor/bin/Debug/Packages/Data/Trades/HZNP/HZNPNounTrade.xlsx
+++ b/StockPredictor/bin/Debug/Packages/Data/Trades/HZNP/HZNPNounTrade.xlsx
@@ -366,7 +366,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -490,6 +490,58 @@
         <v>1</v>
       </c>
     </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>9399.64</v>
+      </c>
+      <c r="B6">
+        <v>10438.24</v>
+      </c>
+      <c r="C6">
+        <v>22.31</v>
+      </c>
+      <c r="D6">
+        <v>20.09</v>
+      </c>
+      <c r="E6" t="b">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>-9.9499999999999993</v>
+      </c>
+      <c r="G6" s="1">
+        <v>42607.884282407409</v>
+      </c>
+      <c r="H6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>8880.7800000000007</v>
+      </c>
+      <c r="B7">
+        <v>9399.64</v>
+      </c>
+      <c r="C7">
+        <v>20.3</v>
+      </c>
+      <c r="D7">
+        <v>19.18</v>
+      </c>
+      <c r="E7" t="b">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>-5.52</v>
+      </c>
+      <c r="G7" s="1">
+        <v>42608.616354166668</v>
+      </c>
+      <c r="H7" t="b">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/StockPredictor/bin/Debug/Packages/Data/Trades/HZNP/HZNPNounTrade.xlsx
+++ b/StockPredictor/bin/Debug/Packages/Data/Trades/HZNP/HZNPNounTrade.xlsx
@@ -366,7 +366,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -542,6 +542,32 @@
         <v>0</v>
       </c>
     </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>8760</v>
+      </c>
+      <c r="B8">
+        <v>8880.7800000000007</v>
+      </c>
+      <c r="C8">
+        <v>19.170000000000002</v>
+      </c>
+      <c r="D8">
+        <v>19.43</v>
+      </c>
+      <c r="E8" t="b">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>1.36</v>
+      </c>
+      <c r="G8" s="1">
+        <v>42609.488726851851</v>
+      </c>
+      <c r="H8" t="b">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/StockPredictor/bin/Debug/Packages/Data/Trades/HZNP/HZNPNounTrade.xlsx
+++ b/StockPredictor/bin/Debug/Packages/Data/Trades/HZNP/HZNPNounTrade.xlsx
@@ -366,7 +366,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -568,6 +568,32 @@
         <v>0</v>
       </c>
     </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8995.64</v>
+      </c>
+      <c r="B9">
+        <v>8760</v>
+      </c>
+      <c r="C9">
+        <v>19.36</v>
+      </c>
+      <c r="D9">
+        <v>18.84</v>
+      </c>
+      <c r="E9" t="b">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>-2.69</v>
+      </c>
+      <c r="G9" s="1">
+        <v>42612.672997685186</v>
+      </c>
+      <c r="H9" t="b">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/StockPredictor/bin/Debug/Packages/Data/Trades/HZNP/HZNPNounTrade.xlsx
+++ b/StockPredictor/bin/Debug/Packages/Data/Trades/HZNP/HZNPNounTrade.xlsx
@@ -366,7 +366,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -594,6 +594,84 @@
         <v>1</v>
       </c>
     </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>8914.68</v>
+      </c>
+      <c r="B10">
+        <v>8995.64</v>
+      </c>
+      <c r="C10">
+        <v>18.84</v>
+      </c>
+      <c r="D10">
+        <v>19.010000000000002</v>
+      </c>
+      <c r="E10" t="b">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0.9</v>
+      </c>
+      <c r="G10" s="1">
+        <v>42613.765543981484</v>
+      </c>
+      <c r="H10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>8963.7099999999991</v>
+      </c>
+      <c r="B11">
+        <v>8914.68</v>
+      </c>
+      <c r="C11">
+        <v>18.93</v>
+      </c>
+      <c r="D11">
+        <v>18.824999999999999</v>
+      </c>
+      <c r="E11" t="b">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>-0.55000000000000004</v>
+      </c>
+      <c r="G11" s="1">
+        <v>42614.67287037037</v>
+      </c>
+      <c r="H11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>9011.2199999999993</v>
+      </c>
+      <c r="B12">
+        <v>8963.7099999999991</v>
+      </c>
+      <c r="C12">
+        <v>18.72</v>
+      </c>
+      <c r="D12">
+        <v>18.62</v>
+      </c>
+      <c r="E12" t="b">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>-0.53</v>
+      </c>
+      <c r="G12" s="1">
+        <v>42615.750150462962</v>
+      </c>
+      <c r="H12" t="b">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/StockPredictor/bin/Debug/Packages/Data/Trades/HZNP/HZNPNounTrade.xlsx
+++ b/StockPredictor/bin/Debug/Packages/Data/Trades/HZNP/HZNPNounTrade.xlsx
@@ -366,7 +366,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -672,6 +672,32 @@
         <v>1</v>
       </c>
     </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>8965.26</v>
+      </c>
+      <c r="B13">
+        <v>9011.2199999999993</v>
+      </c>
+      <c r="C13">
+        <v>17.8</v>
+      </c>
+      <c r="D13">
+        <v>17.89</v>
+      </c>
+      <c r="E13" t="b">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.51</v>
+      </c>
+      <c r="G13" s="1">
+        <v>42620.76630787037</v>
+      </c>
+      <c r="H13" t="b">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/StockPredictor/bin/Debug/Packages/Data/Trades/HZNP/HZNPNounTrade.xlsx
+++ b/StockPredictor/bin/Debug/Packages/Data/Trades/HZNP/HZNPNounTrade.xlsx
@@ -366,7 +366,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -698,6 +698,58 @@
         <v>0</v>
       </c>
     </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>9029.81</v>
+      </c>
+      <c r="B14">
+        <v>8965.26</v>
+      </c>
+      <c r="C14">
+        <v>17.96</v>
+      </c>
+      <c r="D14">
+        <v>17.829999999999998</v>
+      </c>
+      <c r="E14" t="b">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>-0.72</v>
+      </c>
+      <c r="G14" s="1">
+        <v>42621.725891203707</v>
+      </c>
+      <c r="H14" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>8979.24</v>
+      </c>
+      <c r="B15">
+        <v>9029.81</v>
+      </c>
+      <c r="C15">
+        <v>17.75</v>
+      </c>
+      <c r="D15">
+        <v>17.850000000000001</v>
+      </c>
+      <c r="E15" t="b">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="G15" s="1">
+        <v>42622.756365740737</v>
+      </c>
+      <c r="H15" t="b">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/StockPredictor/bin/Debug/Packages/Data/Trades/HZNP/HZNPNounTrade.xlsx
+++ b/StockPredictor/bin/Debug/Packages/Data/Trades/HZNP/HZNPNounTrade.xlsx
@@ -366,7 +366,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -750,6 +750,32 @@
         <v>0</v>
       </c>
     </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>8561.7099999999991</v>
+      </c>
+      <c r="B16">
+        <v>8979.24</v>
+      </c>
+      <c r="C16">
+        <v>17.2</v>
+      </c>
+      <c r="D16">
+        <v>18</v>
+      </c>
+      <c r="E16" t="b">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>4.6500000000000004</v>
+      </c>
+      <c r="G16" s="1">
+        <v>42626.545590277776</v>
+      </c>
+      <c r="H16" t="b">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/StockPredictor/bin/Debug/Packages/Data/Trades/HZNP/HZNPNounTrade.xlsx
+++ b/StockPredictor/bin/Debug/Packages/Data/Trades/HZNP/HZNPNounTrade.xlsx
@@ -369,7 +369,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -448,6 +448,35 @@
         <v>0</v>
       </c>
     </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>42633.676736111112</v>
+      </c>
+      <c r="B4" t="b">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>9948</v>
+      </c>
+      <c r="D4">
+        <v>10000</v>
+      </c>
+      <c r="E4">
+        <v>19.32</v>
+      </c>
+      <c r="F4">
+        <v>19.12</v>
+      </c>
+      <c r="G4" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>-1.04</v>
+      </c>
+      <c r="I4" t="b">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/StockPredictor/bin/Debug/Packages/Data/Trades/HZNP/HZNPNounTrade.xlsx
+++ b/StockPredictor/bin/Debug/Packages/Data/Trades/HZNP/HZNPNounTrade.xlsx
@@ -369,7 +369,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -477,6 +477,35 @@
         <v>0</v>
       </c>
     </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>42636.589062500003</v>
+      </c>
+      <c r="B5" t="b">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>9917.16</v>
+      </c>
+      <c r="D5">
+        <v>9948</v>
+      </c>
+      <c r="E5">
+        <v>19.29</v>
+      </c>
+      <c r="F5">
+        <v>19.41</v>
+      </c>
+      <c r="G5" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>0.62</v>
+      </c>
+      <c r="I5" t="b">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/StockPredictor/bin/Debug/Packages/Data/Trades/HZNP/HZNPNounTrade.xlsx
+++ b/StockPredictor/bin/Debug/Packages/Data/Trades/HZNP/HZNPNounTrade.xlsx
@@ -421,28 +421,28 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>42641.539560185185</v>
+        <v>42642.487476851849</v>
       </c>
       <c r="B3" t="b">
         <v>0</v>
       </c>
       <c r="C3">
-        <v>9989.5</v>
+        <v>9950</v>
       </c>
       <c r="D3">
         <v>10000</v>
       </c>
       <c r="E3">
-        <v>18.670000000000002</v>
+        <v>18.97</v>
       </c>
       <c r="F3">
-        <v>18.71</v>
+        <v>18.78</v>
       </c>
       <c r="G3" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>0.21</v>
+        <v>-1</v>
       </c>
       <c r="I3" t="b">
         <v>0</v>

--- a/StockPredictor/bin/Debug/Packages/Data/Trades/HZNP/HZNPNounTrade.xlsx
+++ b/StockPredictor/bin/Debug/Packages/Data/Trades/HZNP/HZNPNounTrade.xlsx
@@ -369,7 +369,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -448,6 +448,35 @@
         <v>0</v>
       </c>
     </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>42643.486331018517</v>
+      </c>
+      <c r="B4" t="b">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>9682.34</v>
+      </c>
+      <c r="D4">
+        <v>9950</v>
+      </c>
+      <c r="E4">
+        <v>18.78</v>
+      </c>
+      <c r="F4">
+        <v>17.77</v>
+      </c>
+      <c r="G4" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>-5.38</v>
+      </c>
+      <c r="I4" t="b">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/StockPredictor/bin/Debug/Packages/Data/Trades/HZNP/HZNPNounTrade.xlsx
+++ b/StockPredictor/bin/Debug/Packages/Data/Trades/HZNP/HZNPNounTrade.xlsx
@@ -369,20 +369,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -474,6 +475,35 @@
         <v>-5.38</v>
       </c>
       <c r="I4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>42644.475752314815</v>
+      </c>
+      <c r="B5" t="b">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>9766.58</v>
+      </c>
+      <c r="D5">
+        <v>9682.34</v>
+      </c>
+      <c r="E5">
+        <v>17.82</v>
+      </c>
+      <c r="F5">
+        <v>18.13</v>
+      </c>
+      <c r="G5" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>1.74</v>
+      </c>
+      <c r="I5" t="b">
         <v>0</v>
       </c>
     </row>

--- a/StockPredictor/bin/Debug/Packages/Data/Trades/HZNP/HZNPNounTrade.xlsx
+++ b/StockPredictor/bin/Debug/Packages/Data/Trades/HZNP/HZNPNounTrade.xlsx
@@ -369,7 +369,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -507,6 +507,35 @@
         <v>0</v>
       </c>
     </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>42647.680659722224</v>
+      </c>
+      <c r="B6" t="b">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>9941.89</v>
+      </c>
+      <c r="D6">
+        <v>9766.58</v>
+      </c>
+      <c r="E6">
+        <v>18.12</v>
+      </c>
+      <c r="F6">
+        <v>18.77</v>
+      </c>
+      <c r="G6" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>3.59</v>
+      </c>
+      <c r="I6" t="b">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/StockPredictor/bin/Debug/Packages/Data/Trades/HZNP/HZNPNounTrade.xlsx
+++ b/StockPredictor/bin/Debug/Packages/Data/Trades/HZNP/HZNPNounTrade.xlsx
@@ -369,7 +369,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -536,6 +536,35 @@
         <v>0</v>
       </c>
     </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>42648.453576388885</v>
+      </c>
+      <c r="B7" t="b">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>9957.7999999999993</v>
+      </c>
+      <c r="D7">
+        <v>9941.89</v>
+      </c>
+      <c r="E7">
+        <v>18.79</v>
+      </c>
+      <c r="F7">
+        <v>18.850000000000001</v>
+      </c>
+      <c r="G7" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0.32</v>
+      </c>
+      <c r="I7" t="b">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/StockPredictor/bin/Debug/Packages/Data/Trades/HZNP/HZNPNounTrade.xlsx
+++ b/StockPredictor/bin/Debug/Packages/Data/Trades/HZNP/HZNPNounTrade.xlsx
@@ -369,7 +369,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -377,7 +377,7 @@
   <cols>
     <col min="1" max="1" width="14.375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.25" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7" bestFit="1" customWidth="1"/>
@@ -565,6 +565,35 @@
         <v>0</v>
       </c>
     </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>42649.644837962966</v>
+      </c>
+      <c r="B8" t="b">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>10068.83</v>
+      </c>
+      <c r="D8">
+        <v>9957.7999999999993</v>
+      </c>
+      <c r="E8">
+        <v>18.829999999999998</v>
+      </c>
+      <c r="F8">
+        <v>19.25</v>
+      </c>
+      <c r="G8" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>2.23</v>
+      </c>
+      <c r="I8" t="b">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/StockPredictor/bin/Debug/Packages/Data/Trades/HZNP/HZNPNounTrade.xlsx
+++ b/StockPredictor/bin/Debug/Packages/Data/Trades/HZNP/HZNPNounTrade.xlsx
@@ -369,21 +369,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -594,6 +594,35 @@
         <v>0</v>
       </c>
     </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>42651.513414351852</v>
+      </c>
+      <c r="B9" t="b">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>10012.950000000001</v>
+      </c>
+      <c r="D9">
+        <v>10068.83</v>
+      </c>
+      <c r="E9">
+        <v>18.940000999999999</v>
+      </c>
+      <c r="F9">
+        <v>18.73</v>
+      </c>
+      <c r="G9" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>-1.1100000000000001</v>
+      </c>
+      <c r="I9" t="b">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/StockPredictor/bin/Debug/Packages/Data/Trades/HZNP/HZNPNounTrade.xlsx
+++ b/StockPredictor/bin/Debug/Packages/Data/Trades/HZNP/HZNPNounTrade.xlsx
@@ -369,21 +369,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -623,6 +623,35 @@
         <v>0</v>
       </c>
     </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>42654.743831018517</v>
+      </c>
+      <c r="B10" t="b">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>10185.17</v>
+      </c>
+      <c r="D10">
+        <v>10012.950000000001</v>
+      </c>
+      <c r="E10">
+        <v>18.870000999999998</v>
+      </c>
+      <c r="F10">
+        <v>19.52</v>
+      </c>
+      <c r="G10" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>3.44</v>
+      </c>
+      <c r="I10" t="b">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
